--- a/template.xlsx
+++ b/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="315" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="600" yWindow="640" windowWidth="36800" windowHeight="18200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="_config_" sheetId="2" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,16 +198,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -247,7 +247,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -548,19 +548,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="295" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -619,19 +619,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -663,27 +663,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="10"/>
     </row>
   </sheetData>
@@ -709,24 +709,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -775,13 +775,18 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
-      <formula1>"STRING,INT,FLOAT"</formula1>
+      <formula1>"STRING,INT,FLOAT,UINT,DOUBLE,BOOL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>